--- a/VtigerCRM/src/test/resources/TestData/TestScriptData.xlsx
+++ b/VtigerCRM/src/test/resources/TestData/TestScriptData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thrinath\eclipse-workspace\VtigerCRM\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thrinath\git\repository7\VtigerCRM\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0BC92F-2A2E-4884-919F-61095E2CB156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DF4057-932F-495D-A16E-DB27067B1DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>luke</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -472,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E154C16-9B93-4871-B216-67067430B0EA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9109412C-2F30-41AD-BDF0-8A270BE05A99}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,14 +536,35 @@
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
